--- a/data extraction /extraction /raw data /semenov2007/semenov2007.xlsx
+++ b/data extraction /extraction /raw data /semenov2007/semenov2007.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /raw data /semenov2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC0DFFF-96E0-8B46-9BDD-CF6DC5DFAC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D84172-E86F-384E-9DF1-0D3043609427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-7440" windowWidth="26840" windowHeight="14460" xr2:uid="{D5BB3259-110C-9E48-8580-0998C7194AB4}"/>
+    <workbookView xWindow="3340" yWindow="1420" windowWidth="24000" windowHeight="14460" activeTab="2" xr2:uid="{D5BB3259-110C-9E48-8580-0998C7194AB4}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="cleaned" sheetId="2" r:id="rId2"/>
     <sheet name="timepoints" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="20">
   <si>
     <t>trt</t>
   </si>
@@ -441,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAA1A3F-F509-504E-9B02-BB5966B52D61}">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -5972,7 +5972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1A0067-0AC6-F74F-A789-F34958B6F4A7}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -7852,10 +7852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FEADE8-BF0E-6542-BCA1-02A96447CB8F}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9201,7 +9201,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>21.026490066225101</v>
       </c>
       <c r="B68">
@@ -9221,7 +9221,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>13.9072847682119</v>
       </c>
       <c r="B69">
@@ -9241,7 +9241,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>0</v>
       </c>
       <c r="B70">
@@ -9261,7 +9261,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>21.026490066225101</v>
       </c>
       <c r="B71">
@@ -9281,7 +9281,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>13.9072847682119</v>
       </c>
       <c r="B72">
@@ -9301,7 +9301,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>0</v>
       </c>
       <c r="B73">
@@ -9321,7 +9321,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>21.026490066225101</v>
       </c>
       <c r="B74">
@@ -9341,7 +9341,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>14.0728476821191</v>
       </c>
       <c r="B75">
@@ -9361,7 +9361,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>0</v>
       </c>
       <c r="B76">
@@ -9381,7 +9381,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>21.026490066225101</v>
       </c>
       <c r="B77">
@@ -9401,7 +9401,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>14.0728476821191</v>
       </c>
       <c r="B78">
@@ -9421,7 +9421,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>0</v>
       </c>
       <c r="B79">
@@ -9441,7 +9441,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>21.026490066225101</v>
       </c>
       <c r="B80">
@@ -9461,7 +9461,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>13.9072847682119</v>
       </c>
       <c r="B81">
@@ -9481,7 +9481,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>-0.16556291390728001</v>
       </c>
       <c r="B82">
@@ -9501,7 +9501,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>20.860927152317799</v>
       </c>
       <c r="B83">
@@ -9521,7 +9521,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>13.9072847682119</v>
       </c>
       <c r="B84">
@@ -9541,7 +9541,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>-0.16556291390728001</v>
       </c>
       <c r="B85">
@@ -9561,7 +9561,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>21.026490066225101</v>
       </c>
       <c r="B86">
@@ -9581,7 +9581,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>14.0728476821191</v>
       </c>
       <c r="B87">
@@ -9601,7 +9601,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>-0.16556291390728001</v>
       </c>
       <c r="B88">
@@ -9621,7 +9621,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>21.026490066225101</v>
       </c>
       <c r="B89">
@@ -9641,7 +9641,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>13.9072847682119</v>
       </c>
       <c r="B90">
@@ -9661,7 +9661,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>-0.16556291390728001</v>
       </c>
       <c r="B91">
@@ -9681,7 +9681,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>6.9997786386275598</v>
       </c>
       <c r="B92">
@@ -9698,14 +9698,14 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>7.0068622025456504</v>
+      <c r="A93" s="1">
+        <v>15.9498616491422</v>
       </c>
       <c r="B93">
-        <v>-3.8848920863309301E-2</v>
+        <v>-0.106474820143884</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -9715,14 +9715,14 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>6.9900387382401696</v>
+      <c r="A94" s="1">
+        <v>23.054676258992799</v>
       </c>
       <c r="B94">
-        <v>-6.6187050359712202E-2</v>
+        <v>-0.16115107913669</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -9732,62 +9732,62 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>15.9498616491422</v>
+      <c r="A95" s="1">
+        <v>6.9829551743220799</v>
       </c>
       <c r="B95">
-        <v>-0.106474820143884</v>
+        <v>-7.7697841726618699E-2</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>15.9516325401217</v>
+      <c r="A96" s="1">
+        <v>15.9365799667957</v>
       </c>
       <c r="B96">
-        <v>-0.10359712230215801</v>
+        <v>-0.12805755395683399</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>15.948090758162699</v>
+      <c r="A97" s="1">
+        <v>22.914333148865499</v>
       </c>
       <c r="B97">
-        <v>-0.10935251798561101</v>
+        <v>-0.18920863309352501</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>23.054676258992799</v>
+      <c r="A98" s="1">
+        <v>7.0313001973472904</v>
       </c>
       <c r="B98">
-        <v>-0.16115107913669</v>
+        <v>-1.8587360594795502E-2</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -9796,66 +9796,66 @@
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>6.9829551743220799</v>
+      <c r="A99" s="1">
+        <v>16.031713249804898</v>
       </c>
       <c r="B99">
-        <v>-7.7697841726618699E-2</v>
+        <v>-5.7249070631970198E-2</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>6.9944659656889803</v>
+      <c r="A100" s="1">
+        <v>22.934737711689301</v>
       </c>
       <c r="B100">
-        <v>-5.8992805755395603E-2</v>
+        <v>-9.1449814126393997E-2</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>6.9705589374654098</v>
+      <c r="A101" s="1">
+        <v>7.0267107255954899</v>
       </c>
       <c r="B101">
-        <v>-9.7841726618704994E-2</v>
+        <v>-3.3457249070632002E-2</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>15.9365799667957</v>
+      <c r="A102" s="1">
+        <v>16.028500619578601</v>
       </c>
       <c r="B102">
-        <v>-0.12805755395683399</v>
+        <v>-6.7657992565055794E-2</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -9864,66 +9864,66 @@
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>15.939236303265</v>
+      <c r="A103" s="1">
+        <v>22.932442975813402</v>
       </c>
       <c r="B103">
-        <v>-0.123741007194244</v>
+        <v>-9.8884758364312195E-2</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>15.934809075816201</v>
+      <c r="A104" s="1">
+        <v>6.8603243766642397</v>
       </c>
       <c r="B104">
-        <v>-0.130935251798561</v>
+        <v>-5.4901960784313503E-2</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>22.914333148865499</v>
+      <c r="A105" s="1">
+        <v>15.8838658920358</v>
       </c>
       <c r="B105">
-        <v>-0.18920863309352501</v>
+        <v>0.272549019607843</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>7.0313001973472904</v>
+      <c r="A106" s="1">
+        <v>22.938150568869499</v>
       </c>
       <c r="B106">
-        <v>-1.8587360594795502E-2</v>
+        <v>0.16078431372549001</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
@@ -9932,100 +9932,100 @@
         <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>7.0322180916976498</v>
+      <c r="A107" s="1">
+        <v>33.062817719680403</v>
       </c>
       <c r="B107">
-        <v>-1.56133828996282E-2</v>
+        <v>-4.7058823529411598E-2</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>7.0303823029969301</v>
+      <c r="A108" s="1">
+        <v>6.85669329460179</v>
       </c>
       <c r="B108">
-        <v>-2.15613382899628E-2</v>
+        <v>-3.1372549019607697E-2</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>16.031713249804898</v>
+      <c r="A109" s="1">
+        <v>15.9943113047688</v>
       </c>
       <c r="B109">
-        <v>-5.7249070631970198E-2</v>
+        <v>0.15686274509803899</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>16.0326311441553</v>
+      <c r="A110" s="1">
+        <v>22.962962962962902</v>
       </c>
       <c r="B110">
-        <v>-5.4275092936803E-2</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>16.030795355454501</v>
+      <c r="A111" s="1">
+        <v>32.978697651900198</v>
       </c>
       <c r="B111">
-        <v>-6.0223048327137499E-2</v>
+        <v>-0.101960784313725</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>22.934737711689301</v>
+      <c r="A112" s="1">
+        <v>6.2962962962963003</v>
       </c>
       <c r="B112">
-        <v>-9.1449814126393997E-2</v>
+        <v>-0.16052631578947299</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -10034,100 +10034,100 @@
         <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>23.0609481848639</v>
+      <c r="A113" s="1">
+        <v>15.7407407407407</v>
       </c>
       <c r="B113">
-        <v>-8.2527881040892204E-2</v>
+        <v>0.71447368421052604</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>22.932901922988599</v>
+      <c r="A114" s="1">
+        <v>22.962962962962902</v>
       </c>
       <c r="B114">
-        <v>-9.73977695167286E-2</v>
+        <v>0.74210526315789405</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>7.0267107255954899</v>
+      <c r="A115" s="1">
+        <v>33.3333333333333</v>
       </c>
       <c r="B115">
-        <v>-3.3457249070632002E-2</v>
+        <v>0.79736842105263195</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>7.0280875671210303</v>
+      <c r="A116" s="1">
+        <v>6.2962962962963003</v>
       </c>
       <c r="B116">
-        <v>-2.8996282527881001E-2</v>
+        <v>-0.11447368421052501</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>7.0257928312451199</v>
+      <c r="A117" s="1">
+        <v>15.5555555555555</v>
       </c>
       <c r="B117">
-        <v>-3.6431226765799199E-2</v>
+        <v>0.66842105263157903</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>16.028500619578601</v>
+      <c r="A118" s="1">
+        <v>22.7777777777777</v>
       </c>
       <c r="B118">
-        <v>-6.7657992565055794E-2</v>
+        <v>0.346052631578947</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -10136,15 +10136,15 @@
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>22.932442975813402</v>
+      <c r="A119" s="1">
+        <v>33.3333333333333</v>
       </c>
       <c r="B119">
-        <v>-9.8884758364312195E-2</v>
+        <v>0.27236842105263198</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -10153,720 +10153,6 @@
         <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>22.930607187112699</v>
-      </c>
-      <c r="B120">
-        <v>-0.10483271375464601</v>
-      </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>22.934737711689301</v>
-      </c>
-      <c r="B121">
-        <v>-9.1449814126393997E-2</v>
-      </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>6.8603243766642397</v>
-      </c>
-      <c r="B122">
-        <v>-5.4901960784313503E-2</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" t="s">
-        <v>3</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>7.0503510045993698</v>
-      </c>
-      <c r="B123">
-        <v>-8.6274509803921401E-2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>3</v>
-      </c>
-      <c r="F123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>7.0400629387557396</v>
-      </c>
-      <c r="B124">
-        <v>-1.9607843137254801E-2</v>
-      </c>
-      <c r="C124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" t="s">
-        <v>3</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>15.8838658920358</v>
-      </c>
-      <c r="B125">
-        <v>0.272549019607843</v>
-      </c>
-      <c r="C125" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" t="s">
-        <v>3</v>
-      </c>
-      <c r="F125" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>16.078431372549002</v>
-      </c>
-      <c r="B126">
-        <v>0.21176470588235299</v>
-      </c>
-      <c r="C126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" t="s">
-        <v>3</v>
-      </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>15.967683369644099</v>
-      </c>
-      <c r="B127">
-        <v>0.32941176470588202</v>
-      </c>
-      <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" t="s">
-        <v>3</v>
-      </c>
-      <c r="F127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>22.938150568869499</v>
-      </c>
-      <c r="B128">
-        <v>0.16078431372549001</v>
-      </c>
-      <c r="C128" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" t="s">
-        <v>3</v>
-      </c>
-      <c r="F128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>23.116073589929702</v>
-      </c>
-      <c r="B129">
-        <v>0.207843137254902</v>
-      </c>
-      <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" t="s">
-        <v>3</v>
-      </c>
-      <c r="F129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>23.038610505930698</v>
-      </c>
-      <c r="B130">
-        <v>0.10980392156862701</v>
-      </c>
-      <c r="C130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" t="s">
-        <v>3</v>
-      </c>
-      <c r="F130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>33.062817719680403</v>
-      </c>
-      <c r="B131">
-        <v>-4.7058823529411598E-2</v>
-      </c>
-      <c r="C131" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" t="s">
-        <v>3</v>
-      </c>
-      <c r="F131" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>33.061607358992902</v>
-      </c>
-      <c r="B132">
-        <v>-3.9215686274509602E-2</v>
-      </c>
-      <c r="C132" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" t="s">
-        <v>3</v>
-      </c>
-      <c r="F132" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>33.064330670539803</v>
-      </c>
-      <c r="B133">
-        <v>-5.6862745098039E-2</v>
-      </c>
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s">
-        <v>3</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>6.85669329460179</v>
-      </c>
-      <c r="B134">
-        <v>-3.1372549019607697E-2</v>
-      </c>
-      <c r="C134" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" t="s">
-        <v>5</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>15.9943113047688</v>
-      </c>
-      <c r="B135">
-        <v>0.15686274509803899</v>
-      </c>
-      <c r="C135" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>15.989772452190699</v>
-      </c>
-      <c r="B136">
-        <v>0.18627450980392099</v>
-      </c>
-      <c r="C136" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>15.9997579278625</v>
-      </c>
-      <c r="B137">
-        <v>0.12156862745098</v>
-      </c>
-      <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>22.962962962962902</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>32.978697651900198</v>
-      </c>
-      <c r="B139">
-        <v>-0.101960784313725</v>
-      </c>
-      <c r="C139" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>6.2962962962963003</v>
-      </c>
-      <c r="B140">
-        <v>-0.16052631578947299</v>
-      </c>
-      <c r="C140" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" t="s">
-        <v>3</v>
-      </c>
-      <c r="F140" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>6.2962962962963003</v>
-      </c>
-      <c r="B141">
-        <v>-5.9210526315789297E-2</v>
-      </c>
-      <c r="C141" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" t="s">
-        <v>3</v>
-      </c>
-      <c r="F141" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>6.2962962962963003</v>
-      </c>
-      <c r="B142">
-        <v>-0.25263157894736699</v>
-      </c>
-      <c r="C142" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" t="s">
-        <v>3</v>
-      </c>
-      <c r="F142" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>15.7407407407407</v>
-      </c>
-      <c r="B143">
-        <v>0.71447368421052604</v>
-      </c>
-      <c r="C143" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" t="s">
-        <v>3</v>
-      </c>
-      <c r="F143" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>15.7407407407407</v>
-      </c>
-      <c r="B144">
-        <v>0.75592105263157805</v>
-      </c>
-      <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" t="s">
-        <v>3</v>
-      </c>
-      <c r="F144" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>22.962962962962902</v>
-      </c>
-      <c r="B145">
-        <v>0.74210526315789405</v>
-      </c>
-      <c r="C145" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" t="s">
-        <v>3</v>
-      </c>
-      <c r="F145" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>22.962962962962902</v>
-      </c>
-      <c r="B146">
-        <v>0.77894736842105206</v>
-      </c>
-      <c r="C146" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" t="s">
-        <v>3</v>
-      </c>
-      <c r="F146" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>22.962962962962902</v>
-      </c>
-      <c r="B147">
-        <v>0.70065789473684204</v>
-      </c>
-      <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" t="s">
-        <v>3</v>
-      </c>
-      <c r="F147" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="B148">
-        <v>0.79736842105263195</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" t="s">
-        <v>3</v>
-      </c>
-      <c r="F148" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="B149">
-        <v>0.85263157894736796</v>
-      </c>
-      <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" t="s">
-        <v>3</v>
-      </c>
-      <c r="F149" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="B150">
-        <v>0.73289473684210504</v>
-      </c>
-      <c r="C150" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" t="s">
-        <v>3</v>
-      </c>
-      <c r="F150" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>6.2962962962963003</v>
-      </c>
-      <c r="B151">
-        <v>-0.11447368421052501</v>
-      </c>
-      <c r="C151" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>6.2962962962963003</v>
-      </c>
-      <c r="B152">
-        <v>-0.188157894736841</v>
-      </c>
-      <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>6.2962962962963003</v>
-      </c>
-      <c r="B153">
-        <v>-6.8421052631578494E-2</v>
-      </c>
-      <c r="C153" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>15.5555555555555</v>
-      </c>
-      <c r="B154">
-        <v>0.66842105263157903</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>15.648148148148101</v>
-      </c>
-      <c r="B155">
-        <v>0.60855263157894701</v>
-      </c>
-      <c r="C155" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>22.7777777777777</v>
-      </c>
-      <c r="B156">
-        <v>0.346052631578947</v>
-      </c>
-      <c r="C156" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" t="s">
-        <v>5</v>
-      </c>
-      <c r="F156" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>22.7777777777777</v>
-      </c>
-      <c r="B157">
-        <v>0.25394736842105198</v>
-      </c>
-      <c r="C157" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" t="s">
-        <v>5</v>
-      </c>
-      <c r="F157" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>22.962962962962902</v>
-      </c>
-      <c r="B158">
-        <v>0.48421052631578898</v>
-      </c>
-      <c r="C158" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="B159">
-        <v>0.27236842105263198</v>
-      </c>
-      <c r="C159" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="B160">
-        <v>0.41973684210526302</v>
-      </c>
-      <c r="C160" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="B161">
-        <v>0.111184210526315</v>
-      </c>
-      <c r="C161" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" t="s">
-        <v>5</v>
-      </c>
-      <c r="F161" t="s">
         <v>15</v>
       </c>
     </row>
